--- a/cp1/zaritskyi_fb-01_svirshchuk_fb-01_cp1/Bigram_Uncrossed_Frequency_with_space.xlsx
+++ b/cp1/zaritskyi_fb-01_svirshchuk_fb-01_cp1/Bigram_Uncrossed_Frequency_with_space.xlsx
@@ -588,88 +588,88 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.009116668719970432</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.002759640261180239</v>
+        <v>0.002690053955791062</v>
       </c>
       <c r="D2">
-        <v>0.005913514845386226</v>
+        <v>0.005687597903653136</v>
       </c>
       <c r="E2">
-        <v>0.01660333014281518</v>
+        <v>0.01612291864085556</v>
       </c>
       <c r="F2">
-        <v>0.006559831692269785</v>
+        <v>0.005989286197760545</v>
       </c>
       <c r="G2">
-        <v>0.008015466115749471</v>
+        <v>0.007623431124175676</v>
       </c>
       <c r="H2">
-        <v>0.006512447759213806</v>
+        <v>0.006074377767893403</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002805128836913979</v>
+        <v>0.002742269237463498</v>
       </c>
       <c r="K2">
-        <v>0.004033320381724965</v>
+        <v>0.003896807132220697</v>
       </c>
       <c r="L2">
-        <v>0.02576359208119711</v>
+        <v>0.02537275909416156</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.007799395381014206</v>
+        <v>0.007484190373049179</v>
       </c>
       <c r="O2">
-        <v>0.002037509121407113</v>
+        <v>0.001781121274826433</v>
       </c>
       <c r="P2">
-        <v>0.006417679893101847</v>
+        <v>0.006027964184184571</v>
       </c>
       <c r="Q2">
-        <v>0.0126325565527241</v>
+        <v>0.01225318609913168</v>
       </c>
       <c r="R2">
-        <v>0.01003591702125643</v>
+        <v>0.009744918679533544</v>
       </c>
       <c r="S2">
-        <v>0.01445589029671819</v>
+        <v>0.01346574097352492</v>
       </c>
       <c r="T2">
-        <v>0.003038257787549398</v>
+        <v>0.002873774391305189</v>
       </c>
       <c r="U2">
-        <v>0.0193383307588063</v>
+        <v>0.01841845713512155</v>
       </c>
       <c r="V2">
-        <v>0.008494991518275983</v>
+        <v>0.008242278906960103</v>
       </c>
       <c r="W2">
-        <v>0.0033092938846296</v>
+        <v>0.003212206772515423</v>
       </c>
       <c r="X2">
-        <v>0.0006785379213616247</v>
+        <v>0.0005530952058635828</v>
       </c>
       <c r="Y2">
-        <v>0.001432890135612816</v>
+        <v>0.001357597323483339</v>
       </c>
       <c r="Z2">
-        <v>0.0009666322343419793</v>
+        <v>0.000926337774855441</v>
       </c>
       <c r="AA2">
-        <v>0.003457131755764255</v>
+        <v>0.003355315322284322</v>
       </c>
       <c r="AB2">
-        <v>0.0005477582661271216</v>
+        <v>0.0005395579106151734</v>
       </c>
       <c r="AC2">
-        <v>2.27442878668701E-05</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="AD2">
         <v>0</v>
@@ -681,13 +681,13 @@
         <v>0</v>
       </c>
       <c r="AG2">
-        <v>0.0008301665071407587</v>
+        <v>0.0008025682182985554</v>
       </c>
       <c r="AH2">
-        <v>0.0001231982259455464</v>
+        <v>9.862886538126825E-05</v>
       </c>
       <c r="AI2">
-        <v>0.001658437656959278</v>
+        <v>0.001674756812160359</v>
       </c>
     </row>
     <row r="3" spans="1:35">
@@ -695,88 +695,88 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.01701272732441884</v>
+        <v>0.01656964938405307</v>
       </c>
       <c r="C3">
-        <v>0.001048132599198264</v>
+        <v>0.001030768338200313</v>
       </c>
       <c r="D3">
-        <v>0.000778991859440301</v>
+        <v>0.0008296428087953741</v>
       </c>
       <c r="E3">
-        <v>0.004076913600136465</v>
+        <v>0.004341603976097005</v>
       </c>
       <c r="F3">
-        <v>0.0007865732887292577</v>
+        <v>0.0009553462646734611</v>
       </c>
       <c r="G3">
-        <v>0.002026136977473678</v>
+        <v>0.00208087566961264</v>
       </c>
       <c r="H3">
-        <v>0.0007107589958396907</v>
+        <v>0.0008064360169409581</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0008832365121634557</v>
+        <v>0.0009108665802858303</v>
       </c>
       <c r="K3">
-        <v>0.003489352830242321</v>
+        <v>0.003558374751010463</v>
       </c>
       <c r="L3">
-        <v>0.001497332284568948</v>
+        <v>0.001471697383434219</v>
       </c>
       <c r="M3">
-        <v>0.001002644023464524</v>
+        <v>0.001024966640236709</v>
       </c>
       <c r="N3">
-        <v>0.002716047042768738</v>
+        <v>0.002891179485196001</v>
       </c>
       <c r="O3">
-        <v>0.007124648174297059</v>
+        <v>0.007375892011061904</v>
       </c>
       <c r="P3">
-        <v>0.004177367538215142</v>
+        <v>0.004221702218182521</v>
       </c>
       <c r="Q3">
-        <v>0.003093223149894334</v>
+        <v>0.003188999980661007</v>
       </c>
       <c r="R3">
-        <v>0.0002994664569137896</v>
+        <v>0.0003461679784950395</v>
       </c>
       <c r="S3">
-        <v>0.0005269093355824907</v>
+        <v>0.0006227155814268309</v>
       </c>
       <c r="T3">
-        <v>0.003521573904720387</v>
+        <v>0.003645400220464523</v>
       </c>
       <c r="U3">
-        <v>0.002372987367443447</v>
+        <v>0.002415440252180471</v>
       </c>
       <c r="V3">
-        <v>0.002560627742345126</v>
+        <v>0.002792550619814733</v>
       </c>
       <c r="W3">
-        <v>0.0003942343230257484</v>
+        <v>0.0004447968438763078</v>
       </c>
       <c r="X3">
-        <v>0.0004321414694705319</v>
+        <v>0.0004235239513430931</v>
       </c>
       <c r="Y3">
-        <v>0.0009400972318306308</v>
+        <v>0.001046239532769924</v>
       </c>
       <c r="Z3">
-        <v>3.79071464447835E-05</v>
+        <v>5.608308031483881E-05</v>
       </c>
       <c r="AA3">
-        <v>0.0004643625439485979</v>
+        <v>0.0004776731323367306</v>
       </c>
       <c r="AB3">
-        <v>0.001159958681210375</v>
+        <v>0.001237695565568857</v>
       </c>
       <c r="AC3">
-        <v>0.0001269889405900247</v>
+        <v>0.0001237695565568856</v>
       </c>
       <c r="AD3">
         <v>0</v>
@@ -788,13 +788,13 @@
         <v>0</v>
       </c>
       <c r="AG3">
-        <v>1.895357322239175E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AH3">
-        <v>0.0004776300452042721</v>
+        <v>0.0004892765282639385</v>
       </c>
       <c r="AI3">
-        <v>0.000530700050226969</v>
+        <v>0.0005511613065423814</v>
       </c>
     </row>
     <row r="4" spans="1:35">
@@ -802,106 +802,106 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.0003942343230257484</v>
+        <v>0.0003442340791738382</v>
       </c>
       <c r="C4">
-        <v>0.000422664682859336</v>
+        <v>0.0004505985418399118</v>
       </c>
       <c r="D4">
-        <v>4.738393305597938E-05</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="E4">
-        <v>7.5814292889567E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>9.476786611195875E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="H4">
-        <v>0.001774054453615868</v>
+        <v>0.001815931462608057</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>1.895357322239175E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>0.0006804332786838639</v>
+        <v>0.0007039393529172871</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
       <c r="N4">
-        <v>1.137214393343505E-05</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="O4">
-        <v>0.0009514693757640659</v>
+        <v>0.001013363244309501</v>
       </c>
       <c r="P4">
-        <v>3.03257171558268E-05</v>
+        <v>3.094238913922141E-05</v>
       </c>
       <c r="Q4">
-        <v>0.0002331289506354185</v>
+        <v>0.0002842832002165967</v>
       </c>
       <c r="R4">
-        <v>0.003146293154917031</v>
+        <v>0.003196735577945812</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="T4">
-        <v>0.001429099420968338</v>
+        <v>0.001479432980719024</v>
       </c>
       <c r="U4">
-        <v>3.411643180030515E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="V4">
-        <v>7.5814292889567E-06</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="W4">
-        <v>0.001512495143146862</v>
+        <v>0.00148910247732503</v>
       </c>
       <c r="X4">
         <v>0</v>
       </c>
       <c r="Y4">
-        <v>1.895357322239175E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="Z4">
         <v>0</v>
       </c>
       <c r="AA4">
-        <v>1.895357322239175E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AB4">
-        <v>5.686071966717526E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="AC4">
-        <v>0.000151628585779134</v>
+        <v>0.000143108549768899</v>
       </c>
       <c r="AD4">
-        <v>7.5814292889567E-05</v>
+        <v>7.542207352685219E-05</v>
       </c>
       <c r="AE4">
-        <v>0.002475336662844363</v>
+        <v>0.002537275909416156</v>
       </c>
       <c r="AF4">
-        <v>5.117464770045773E-05</v>
+        <v>6.381867759964416E-05</v>
       </c>
       <c r="AG4">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AH4">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AI4">
-        <v>0.000714549710484169</v>
+        <v>0.0007754936278017366</v>
       </c>
     </row>
     <row r="5" spans="1:35">
@@ -909,85 +909,85 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.007181508893964235</v>
+        <v>0.006646811966969</v>
       </c>
       <c r="C5">
-        <v>0.00475734687882033</v>
+        <v>0.004784466920652111</v>
       </c>
       <c r="D5">
-        <v>3.79071464447835E-06</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="E5">
-        <v>6.633750627837113E-05</v>
+        <v>9.862886538126825E-05</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="G5">
-        <v>8.150036485628454E-05</v>
+        <v>0.0001024966640236709</v>
       </c>
       <c r="H5">
-        <v>0.005161057988457274</v>
+        <v>0.005266007851631244</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="J5">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-05</v>
       </c>
       <c r="K5">
-        <v>0.0005420721941604041</v>
+        <v>0.0005724341990755961</v>
       </c>
       <c r="L5">
-        <v>0.003379422105552449</v>
+        <v>0.003442340791738382</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
       <c r="N5">
-        <v>3.79071464447835E-05</v>
+        <v>6.381867759964416E-05</v>
       </c>
       <c r="O5">
-        <v>0.0006482122042057979</v>
+        <v>0.0006846003597052738</v>
       </c>
       <c r="P5">
-        <v>0.000119407511301068</v>
+        <v>0.000119901757914483</v>
       </c>
       <c r="Q5">
-        <v>0.0004700486159153154</v>
+        <v>0.0004583341391247172</v>
       </c>
       <c r="R5">
-        <v>0.00939528624633959</v>
+        <v>0.009640488116188671</v>
       </c>
       <c r="S5">
-        <v>4.169786108926186E-05</v>
+        <v>0.0001005627647024696</v>
       </c>
       <c r="T5">
-        <v>0.0008775504401967381</v>
+        <v>0.0009398750701038504</v>
       </c>
       <c r="U5">
-        <v>0.002795652050302783</v>
+        <v>0.00287570829062639</v>
       </c>
       <c r="V5">
-        <v>0.0001042446527231546</v>
+        <v>0.0001082983619872749</v>
       </c>
       <c r="W5">
-        <v>0.0009647368770197401</v>
+        <v>0.0009766191572066758</v>
       </c>
       <c r="X5">
-        <v>5.686071966717526E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="Y5">
-        <v>9.666322343419793E-05</v>
+        <v>0.000131505153841691</v>
       </c>
       <c r="Z5">
-        <v>3.980250376702268E-05</v>
+        <v>4.254578506642944E-05</v>
       </c>
       <c r="AA5">
-        <v>0.000216070734735266</v>
+        <v>0.0002243323212593552</v>
       </c>
       <c r="AB5">
-        <v>0.0003904436083812701</v>
+        <v>0.0004099866560946837</v>
       </c>
       <c r="AC5">
         <v>0</v>
@@ -996,19 +996,19 @@
         <v>0</v>
       </c>
       <c r="AE5">
-        <v>0.002793756692980544</v>
+        <v>0.0027461370361059</v>
       </c>
       <c r="AF5">
-        <v>0.000335478246036334</v>
+        <v>0.0003635730723858516</v>
       </c>
       <c r="AG5">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AH5">
         <v>0</v>
       </c>
       <c r="AI5">
-        <v>0.0009495740184418267</v>
+        <v>0.000932139472819045</v>
       </c>
     </row>
     <row r="6" spans="1:35">
@@ -1016,25 +1016,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.001012120810075719</v>
+        <v>0.001007561546345897</v>
       </c>
       <c r="C6">
-        <v>0.001139109750665744</v>
+        <v>0.001135198901545186</v>
       </c>
       <c r="D6">
-        <v>3.79071464447835E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="E6">
-        <v>3.79071464447835E-06</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="F6">
-        <v>9.476786611195875E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="G6">
-        <v>0.001067086172420656</v>
+        <v>0.001121661606296776</v>
       </c>
       <c r="H6">
-        <v>0.0003392689606808123</v>
+        <v>0.0003558374751010462</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1043,43 +1043,43 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="L6">
-        <v>0.000843434008396433</v>
+        <v>0.000920536076891837</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
       <c r="N6">
-        <v>3.79071464447835E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="O6">
-        <v>0.0007543522142511917</v>
+        <v>0.0007580885339109246</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Q6">
-        <v>0.0004302461121482928</v>
+        <v>0.0004273917499854957</v>
       </c>
       <c r="R6">
-        <v>0.01242217188995555</v>
+        <v>0.01253940319866948</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="T6">
-        <v>0.0005572350527383175</v>
+        <v>0.0005705002997543947</v>
       </c>
       <c r="U6">
-        <v>3.79071464447835E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="V6">
-        <v>3.79071464447835E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="W6">
-        <v>0.0003885482510590309</v>
+        <v>0.0003964493608462744</v>
       </c>
       <c r="X6">
         <v>0</v>
@@ -1091,10 +1091,10 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>7.5814292889567E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AB6">
-        <v>3.79071464447835E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AC6">
         <v>0</v>
@@ -1123,106 +1123,106 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.002416580585854948</v>
+        <v>0.00222591811870274</v>
       </c>
       <c r="C7">
-        <v>0.00560836231650572</v>
+        <v>0.005559960548453848</v>
       </c>
       <c r="D7">
-        <v>5.686071966717526E-06</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="E7">
-        <v>0.000670956492072668</v>
+        <v>0.0007116749502020925</v>
       </c>
       <c r="F7">
-        <v>3.79071464447835E-06</v>
+        <v>4.834748303003345E-05</v>
       </c>
       <c r="G7">
-        <v>3.601178912254433E-05</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="H7">
-        <v>0.006046189857942969</v>
+        <v>0.006066642170608598</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="K7">
-        <v>2.27442878668701E-05</v>
+        <v>2.707459049681873E-05</v>
       </c>
       <c r="L7">
-        <v>0.002541674169122734</v>
+        <v>0.002597226788373397</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
       <c r="N7">
-        <v>2.843035983358763E-05</v>
+        <v>4.254578506642944E-05</v>
       </c>
       <c r="O7">
-        <v>0.0008623875816188247</v>
+        <v>0.0008934614863950182</v>
       </c>
       <c r="P7">
-        <v>6.633750627837113E-05</v>
+        <v>8.509157013285888E-05</v>
       </c>
       <c r="Q7">
-        <v>0.001823333743994087</v>
+        <v>0.001901023032740916</v>
       </c>
       <c r="R7">
-        <v>0.00376797035661148</v>
+        <v>0.003838790152584657</v>
       </c>
       <c r="S7">
-        <v>5.686071966717526E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="T7">
-        <v>0.0005269093355824907</v>
+        <v>0.0005337562126515693</v>
       </c>
       <c r="U7">
-        <v>0.0002046985908018309</v>
+        <v>0.0002127289253321472</v>
       </c>
       <c r="V7">
-        <v>6.633750627837113E-05</v>
+        <v>7.542207352685219E-05</v>
       </c>
       <c r="W7">
-        <v>0.001954113399228589</v>
+        <v>0.002011255294049392</v>
       </c>
       <c r="X7">
-        <v>3.79071464447835E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="Y7">
-        <v>2.463964518910928E-05</v>
+        <v>2.900848981802007E-05</v>
       </c>
       <c r="Z7">
-        <v>0.0005250139782602515</v>
+        <v>0.0005298884140091666</v>
       </c>
       <c r="AA7">
-        <v>5.686071966717526E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AB7">
-        <v>8.529107950076289E-05</v>
+        <v>8.315767081165754E-05</v>
       </c>
       <c r="AC7">
         <v>0</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AE7">
-        <v>0.0006444214895613196</v>
+        <v>0.0006981376549536831</v>
       </c>
       <c r="AF7">
-        <v>0.001692554088759583</v>
+        <v>0.001725038194511594</v>
       </c>
       <c r="AG7">
         <v>0</v>
       </c>
       <c r="AH7">
-        <v>5.686071966717526E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="AI7">
-        <v>0.0002217568067019835</v>
+        <v>0.0002146628246533486</v>
       </c>
     </row>
     <row r="8" spans="1:35">
@@ -1230,88 +1230,88 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.01561963969257304</v>
+        <v>0.01451004660697364</v>
       </c>
       <c r="C8">
-        <v>6.254679163389278E-05</v>
+        <v>7.348817420565085E-05</v>
       </c>
       <c r="D8">
-        <v>0.002407103799243753</v>
+        <v>0.002481192829101317</v>
       </c>
       <c r="E8">
-        <v>0.002357824508865534</v>
+        <v>0.002595292889052196</v>
       </c>
       <c r="F8">
-        <v>0.005396082296414932</v>
+        <v>0.005720474192113558</v>
       </c>
       <c r="G8">
-        <v>0.002626965248623497</v>
+        <v>0.00281769131099035</v>
       </c>
       <c r="H8">
-        <v>0.001296424408411596</v>
+        <v>0.001456226188864608</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.0008737597255522598</v>
+        <v>0.000908932680964629</v>
       </c>
       <c r="K8">
-        <v>0.0005515489807716</v>
+        <v>0.0005666325011119921</v>
       </c>
       <c r="L8">
-        <v>0.0001743728736460041</v>
+        <v>0.0002185306232957512</v>
       </c>
       <c r="M8">
-        <v>0.002704674898835303</v>
+        <v>0.002802220116420739</v>
       </c>
       <c r="N8">
-        <v>0.0008150036485628453</v>
+        <v>0.0008741224931830049</v>
       </c>
       <c r="O8">
-        <v>0.005754304830318135</v>
+        <v>0.006029898083505772</v>
       </c>
       <c r="P8">
-        <v>0.005479478018593455</v>
+        <v>0.005585101239629465</v>
       </c>
       <c r="Q8">
-        <v>0.006758844211104898</v>
+        <v>0.006911756173973583</v>
       </c>
       <c r="R8">
-        <v>0.0001213028686233072</v>
+        <v>0.0002049933280473419</v>
       </c>
       <c r="S8">
-        <v>0.0004529904000151629</v>
+        <v>0.0005937070916088109</v>
       </c>
       <c r="T8">
-        <v>0.004287298262905014</v>
+        <v>0.004467307431975091</v>
       </c>
       <c r="U8">
-        <v>0.004926033680499617</v>
+        <v>0.005113229805256339</v>
       </c>
       <c r="V8">
-        <v>0.004501473640318041</v>
+        <v>0.004625887176313601</v>
       </c>
       <c r="W8">
-        <v>5.117464770045773E-05</v>
+        <v>8.315767081165754E-05</v>
       </c>
       <c r="X8">
-        <v>0.000498478975748903</v>
+        <v>0.0005511613065423814</v>
       </c>
       <c r="Y8">
-        <v>0.0008794457975189773</v>
+        <v>0.0009630818619582664</v>
       </c>
       <c r="Z8">
-        <v>0.0003923389657035092</v>
+        <v>0.0003809781662766636</v>
       </c>
       <c r="AA8">
-        <v>0.0008472247230409113</v>
+        <v>0.0009224699762130383</v>
       </c>
       <c r="AB8">
-        <v>0.0008472247230409113</v>
+        <v>0.0008644529965769982</v>
       </c>
       <c r="AC8">
-        <v>0.0003089432435249856</v>
+        <v>0.0003190933879982208</v>
       </c>
       <c r="AD8">
         <v>0</v>
@@ -1323,13 +1323,13 @@
         <v>0</v>
       </c>
       <c r="AG8">
-        <v>9.476786611195875E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AH8">
-        <v>0.0006690611347504288</v>
+        <v>0.000651724071244851</v>
       </c>
       <c r="AI8">
-        <v>0.0003070478862027463</v>
+        <v>0.0003326306832466302</v>
       </c>
     </row>
     <row r="9" spans="1:35">
@@ -1337,7 +1337,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.117464770045773E-05</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="T9">
-        <v>1.895357322239175E-06</v>
+        <v>0</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1444,70 +1444,70 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.875607698941443E-05</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="C10">
-        <v>0.0006159911297277319</v>
+        <v>0.0006014426888936162</v>
       </c>
       <c r="D10">
-        <v>3.222107447806598E-05</v>
+        <v>4.254578506642944E-05</v>
       </c>
       <c r="E10">
-        <v>5.686071966717526E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="F10">
-        <v>5.117464770045773E-05</v>
+        <v>2.127289253321472E-05</v>
       </c>
       <c r="G10">
-        <v>0.0008623875816188247</v>
+        <v>0.0009379411707826491</v>
       </c>
       <c r="H10">
-        <v>0.003436282825219625</v>
+        <v>0.003407530603956758</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.0002009078761573526</v>
+        <v>0.0002301340192229592</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>0.001827124458638565</v>
+        <v>0.001866212844959291</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>1.326750125567423E-05</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="Q10">
-        <v>0.0005477582661271216</v>
+        <v>0.0005028138235123479</v>
       </c>
       <c r="R10">
-        <v>1.705821590015258E-05</v>
+        <v>2.127289253321472E-05</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="T10">
-        <v>5.875607698941443E-05</v>
+        <v>5.995087895724148E-05</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="V10">
         <v>0</v>
       </c>
       <c r="W10">
-        <v>0.0001895357322239175</v>
+        <v>0.0001740509389081204</v>
       </c>
       <c r="X10">
         <v>0</v>
@@ -1519,7 +1519,7 @@
         <v>0</v>
       </c>
       <c r="AA10">
-        <v>4.548857573374021E-05</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -1534,7 +1534,7 @@
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>2.653500251134845E-05</v>
+        <v>3.481018778162409E-05</v>
       </c>
       <c r="AG10">
         <v>0</v>
@@ -1551,70 +1551,70 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.001834705887927521</v>
+        <v>0.001697963604014775</v>
       </c>
       <c r="C11">
-        <v>0.004531799357473868</v>
+        <v>0.004633622773598406</v>
       </c>
       <c r="D11">
-        <v>0.0001611053723903299</v>
+        <v>0.0001547119456961071</v>
       </c>
       <c r="E11">
-        <v>0.0008718643682300206</v>
+        <v>0.0008528496006497901</v>
       </c>
       <c r="F11">
-        <v>0.0001573146577458515</v>
+        <v>0.000137306851805295</v>
       </c>
       <c r="G11">
-        <v>0.0003923389657035092</v>
+        <v>0.0003809781662766636</v>
       </c>
       <c r="H11">
-        <v>0.001381715487912359</v>
+        <v>0.001491036376646232</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="K11">
-        <v>7.770965021180617E-05</v>
+        <v>9.669496606006691E-05</v>
       </c>
       <c r="L11">
-        <v>0.0002577685958245278</v>
+        <v>0.0002939526968226034</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
       <c r="N11">
-        <v>2.463964518910928E-05</v>
+        <v>4.834748303003345E-05</v>
       </c>
       <c r="O11">
-        <v>0.0004018157523147051</v>
+        <v>0.0004525324411611131</v>
       </c>
       <c r="P11">
-        <v>0.0001156167966565897</v>
+        <v>0.0001353729524840937</v>
       </c>
       <c r="Q11">
-        <v>0.0006804332786838639</v>
+        <v>0.0007348817420565085</v>
       </c>
       <c r="R11">
-        <v>0.0004681532585930763</v>
+        <v>0.0004796070316579319</v>
       </c>
       <c r="S11">
-        <v>3.79071464447835E-06</v>
+        <v>2.320679185441606E-05</v>
       </c>
       <c r="T11">
-        <v>0.001482169425991035</v>
+        <v>0.001363399021446944</v>
       </c>
       <c r="U11">
-        <v>1.895357322239175E-06</v>
+        <v>2.127289253321472E-05</v>
       </c>
       <c r="V11">
-        <v>5.686071966717526E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="W11">
-        <v>0.000108035367367633</v>
+        <v>9.669496606006691E-05</v>
       </c>
       <c r="X11">
         <v>0</v>
@@ -1623,10 +1623,10 @@
         <v>0</v>
       </c>
       <c r="Z11">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AA11">
-        <v>5.686071966717526E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -1635,22 +1635,22 @@
         <v>0</v>
       </c>
       <c r="AD11">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AE11">
-        <v>0.0001762682309682433</v>
+        <v>0.0001759848382293218</v>
       </c>
       <c r="AF11">
-        <v>0.0002805128836913979</v>
+        <v>0.0002997543947862074</v>
       </c>
       <c r="AG11">
         <v>0</v>
       </c>
       <c r="AH11">
-        <v>5.686071966717526E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="AI11">
-        <v>0.0004264553975038144</v>
+        <v>0.0004544663404823145</v>
       </c>
     </row>
     <row r="12" spans="1:35">
@@ -1658,88 +1658,88 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.03010206499180258</v>
+        <v>0.02867972693341585</v>
       </c>
       <c r="C12">
-        <v>0.0006576889908169938</v>
+        <v>0.0007232783461293005</v>
       </c>
       <c r="D12">
-        <v>0.0009211436586082392</v>
+        <v>0.0009630818619582664</v>
       </c>
       <c r="E12">
-        <v>0.001358971200045488</v>
+        <v>0.001554855054245876</v>
       </c>
       <c r="F12">
-        <v>0.0002426057372466144</v>
+        <v>0.0002939526968226034</v>
       </c>
       <c r="G12">
-        <v>0.001764577667004672</v>
+        <v>0.001930031522558936</v>
       </c>
       <c r="H12">
-        <v>0.001967380900484264</v>
+        <v>0.002152429944497089</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.0001914310895461567</v>
+        <v>0.0002243323212593552</v>
       </c>
       <c r="K12">
-        <v>0.003464713185053212</v>
+        <v>0.003769169777021408</v>
       </c>
       <c r="L12">
-        <v>0.0008832365121634557</v>
+        <v>0.0009669496606006692</v>
       </c>
       <c r="M12">
-        <v>0.0008585968669743464</v>
+        <v>0.0008315767081165755</v>
       </c>
       <c r="N12">
-        <v>0.001885880535627979</v>
+        <v>0.001939701019164942</v>
       </c>
       <c r="O12">
-        <v>0.006235725590166886</v>
+        <v>0.006631340772399389</v>
       </c>
       <c r="P12">
-        <v>0.003288444954084969</v>
+        <v>0.003523564563228838</v>
       </c>
       <c r="Q12">
-        <v>0.00335478246036334</v>
+        <v>0.00351196116730163</v>
       </c>
       <c r="R12">
-        <v>0.0006955961372617773</v>
+        <v>0.0008934614863950182</v>
       </c>
       <c r="S12">
-        <v>0.0004416182560817278</v>
+        <v>0.0007484190373049179</v>
       </c>
       <c r="T12">
-        <v>0.0007353986410288</v>
+        <v>0.0008625190972557969</v>
       </c>
       <c r="U12">
-        <v>0.003646667487988173</v>
+        <v>0.003941286816608327</v>
       </c>
       <c r="V12">
-        <v>0.00358412069635428</v>
+        <v>0.003703417200100563</v>
       </c>
       <c r="W12">
-        <v>0.0001648960870348082</v>
+        <v>0.0002088611266897445</v>
       </c>
       <c r="X12">
-        <v>0.0003373736033585732</v>
+        <v>0.0003423001798526369</v>
       </c>
       <c r="Y12">
-        <v>0.003269491380862577</v>
+        <v>0.003368852617532731</v>
       </c>
       <c r="Z12">
-        <v>0.0007429800703177567</v>
+        <v>0.0006768647624204683</v>
       </c>
       <c r="AA12">
-        <v>0.0002009078761573526</v>
+        <v>0.0002765476029317914</v>
       </c>
       <c r="AB12">
-        <v>0.0007012822092284948</v>
+        <v>0.0007522868359473206</v>
       </c>
       <c r="AC12">
-        <v>0.0003013618142360289</v>
+        <v>0.0003094238913922141</v>
       </c>
       <c r="AD12">
         <v>0</v>
@@ -1751,13 +1751,13 @@
         <v>0</v>
       </c>
       <c r="AG12">
-        <v>5.686071966717526E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AH12">
-        <v>0.000346850389969769</v>
+        <v>0.0003190933879982208</v>
       </c>
       <c r="AI12">
-        <v>0.001262307976611291</v>
+        <v>0.001326654934344118</v>
       </c>
     </row>
     <row r="13" spans="1:35">
@@ -1765,85 +1765,85 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.006692506704826528</v>
+        <v>0.006461157632133671</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="E13">
-        <v>7.5814292889567E-06</v>
+        <v>3.287628846042275E-05</v>
       </c>
       <c r="F13">
-        <v>7.5814292889567E-06</v>
+        <v>3.481018778162409E-05</v>
       </c>
       <c r="G13">
-        <v>0.0005837700552496659</v>
+        <v>0.0006169138834632269</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>2.707459049681873E-05</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
       <c r="N13">
-        <v>3.79071464447835E-06</v>
+        <v>3.287628846042275E-05</v>
       </c>
       <c r="O13">
-        <v>9.476786611195875E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="P13">
-        <v>1.51628585779134E-05</v>
+        <v>4.06118857452281E-05</v>
       </c>
       <c r="Q13">
-        <v>0.0001914310895461567</v>
+        <v>0.0002340018178653619</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>3.481018778162409E-05</v>
       </c>
       <c r="T13">
-        <v>3.79071464447835E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="U13">
-        <v>0.0003506411046142474</v>
+        <v>0.0004041849581310797</v>
       </c>
       <c r="V13">
-        <v>0.0004283507548260536</v>
+        <v>0.0004622019377671198</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Z13">
-        <v>5.496536234493608E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="AA13">
-        <v>1.895357322239175E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AB13">
-        <v>0.0001175121539788289</v>
+        <v>0.0001295712545204897</v>
       </c>
       <c r="AC13">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>0</v>
       </c>
       <c r="AI13">
-        <v>5.686071966717526E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
     </row>
     <row r="14" spans="1:35">
@@ -1872,85 +1872,85 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.003898750011845983</v>
+        <v>0.003716954495348972</v>
       </c>
       <c r="C14">
-        <v>0.005390396224448214</v>
+        <v>0.005519348662708619</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="E14">
-        <v>7.391893556732783E-05</v>
+        <v>0.0001024966640236709</v>
       </c>
       <c r="F14">
-        <v>0</v>
+        <v>2.900848981802007E-05</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="H14">
-        <v>0.0003335828887140948</v>
+        <v>0.0003906476628826703</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>7.391893556732783E-05</v>
+        <v>8.509157013285888E-05</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="L14">
-        <v>0.001889671250272458</v>
+        <v>0.00196484171034056</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
       <c r="N14">
-        <v>3.79071464447835E-05</v>
+        <v>6.188477827844282E-05</v>
       </c>
       <c r="O14">
-        <v>0.0006766425640393855</v>
+        <v>0.0006826664603840724</v>
       </c>
       <c r="P14">
-        <v>1.895357322239175E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="Q14">
-        <v>0.0001004539380786763</v>
+        <v>0.0001411746504476977</v>
       </c>
       <c r="R14">
-        <v>0.006785379213616247</v>
+        <v>0.00682086290587712</v>
       </c>
       <c r="S14">
-        <v>0</v>
+        <v>2.707459049681873E-05</v>
       </c>
       <c r="T14">
-        <v>0.001336226912178618</v>
+        <v>0.001334390531628923</v>
       </c>
       <c r="U14">
-        <v>2.27442878668701E-05</v>
+        <v>5.414918099363747E-05</v>
       </c>
       <c r="V14">
-        <v>0.0004814207598487505</v>
+        <v>0.0005337562126515693</v>
       </c>
       <c r="W14">
-        <v>0.0009533647330863051</v>
+        <v>0.0009302055734978438</v>
       </c>
       <c r="X14">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Y14">
-        <v>1.705821590015258E-05</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="Z14">
-        <v>0</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AA14">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AB14">
-        <v>1.895357322239175E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AC14">
         <v>0</v>
@@ -1971,7 +1971,7 @@
         <v>0</v>
       </c>
       <c r="AI14">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
     </row>
     <row r="15" spans="1:35">
@@ -1979,85 +1979,85 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.008388851508230589</v>
+        <v>0.00825001450424491</v>
       </c>
       <c r="C15">
-        <v>0.005162953345779513</v>
+        <v>0.005064882322226305</v>
       </c>
       <c r="D15">
-        <v>8.529107950076289E-05</v>
+        <v>9.282716741766424E-05</v>
       </c>
       <c r="E15">
-        <v>1.705821590015258E-05</v>
+        <v>5.02813823512348E-05</v>
       </c>
       <c r="F15">
-        <v>7.012822092284948E-05</v>
+        <v>9.08932680964629E-05</v>
       </c>
       <c r="G15">
-        <v>1.137214393343505E-05</v>
+        <v>1.933899321201338E-05</v>
       </c>
       <c r="H15">
-        <v>0.00528425621440282</v>
+        <v>0.00526020615366764</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.0004833161171709897</v>
+        <v>0.0005028138235123479</v>
       </c>
       <c r="K15">
-        <v>3.79071464447835E-06</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="L15">
-        <v>0.00737483534083263</v>
+        <v>0.007789746465798991</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
       <c r="N15">
-        <v>0.000108035367367633</v>
+        <v>0.0001353729524840937</v>
       </c>
       <c r="O15">
-        <v>5.117464770045773E-05</v>
+        <v>5.02813823512348E-05</v>
       </c>
       <c r="P15">
-        <v>7.5814292889567E-05</v>
+        <v>7.348817420565085E-05</v>
       </c>
       <c r="Q15">
-        <v>0.0002501871665355711</v>
+        <v>0.0003016882941074088</v>
       </c>
       <c r="R15">
-        <v>0.004491996853706846</v>
+        <v>0.004593010887853178</v>
       </c>
       <c r="S15">
-        <v>2.463964518910928E-05</v>
+        <v>3.481018778162409E-05</v>
       </c>
       <c r="T15">
-        <v>0</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="U15">
-        <v>0.0007164450678064082</v>
+        <v>0.0007870970237289446</v>
       </c>
       <c r="V15">
-        <v>2.843035983358763E-05</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="W15">
-        <v>0.001038655812587068</v>
+        <v>0.001050107331412327</v>
       </c>
       <c r="X15">
-        <v>1.326750125567423E-05</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="Y15">
-        <v>4.738393305597938E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="Z15">
-        <v>9.476786611195875E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AA15">
-        <v>4.738393305597938E-05</v>
+        <v>8.12237714904562E-05</v>
       </c>
       <c r="AB15">
-        <v>7.5814292889567E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="AC15">
         <v>0</v>
@@ -2066,19 +2066,19 @@
         <v>0</v>
       </c>
       <c r="AE15">
-        <v>0.0003847575364145525</v>
+        <v>0.0003925815622038716</v>
       </c>
       <c r="AF15">
-        <v>0.001800589456127216</v>
+        <v>0.001678624610802762</v>
       </c>
       <c r="AG15">
         <v>0</v>
       </c>
       <c r="AH15">
-        <v>0.001070876887065134</v>
+        <v>0.0010114293449883</v>
       </c>
       <c r="AI15">
-        <v>0.001959799471195307</v>
+        <v>0.002036395985225009</v>
       </c>
     </row>
     <row r="16" spans="1:35">
@@ -2086,106 +2086,106 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.007761488234569422</v>
+        <v>0.007401032702237522</v>
       </c>
       <c r="C16">
-        <v>0.001544716217624928</v>
+        <v>0.001609004235239513</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>2.707459049681873E-05</v>
       </c>
       <c r="E16">
-        <v>7.5814292889567E-06</v>
+        <v>6.188477827844282E-05</v>
       </c>
       <c r="F16">
-        <v>5.686071966717526E-06</v>
+        <v>5.221528167243614E-05</v>
       </c>
       <c r="G16">
-        <v>1.895357322239175E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="H16">
-        <v>0.003578434624387563</v>
+        <v>0.003782707072269817</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="L16">
-        <v>0.00252840666786706</v>
+        <v>0.002680384459185055</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
       <c r="N16">
-        <v>3.980250376702268E-05</v>
+        <v>7.348817420565085E-05</v>
       </c>
       <c r="O16">
-        <v>0.001421517991679381</v>
+        <v>0.001496838074609836</v>
       </c>
       <c r="P16">
-        <v>0.0001326750125567423</v>
+        <v>0.000137306851805295</v>
       </c>
       <c r="Q16">
-        <v>0.00124145904606666</v>
+        <v>0.001206753176429635</v>
       </c>
       <c r="R16">
-        <v>0.003313084599274078</v>
+        <v>0.003562242549652865</v>
       </c>
       <c r="S16">
-        <v>1.895357322239175E-05</v>
+        <v>5.414918099363747E-05</v>
       </c>
       <c r="T16">
-        <v>9.666322343419793E-05</v>
+        <v>0.0001179678585932816</v>
       </c>
       <c r="U16">
-        <v>0.0002824082410136371</v>
+        <v>0.0003500357771374422</v>
       </c>
       <c r="V16">
-        <v>5.686071966717526E-06</v>
+        <v>2.707459049681873E-05</v>
       </c>
       <c r="W16">
-        <v>0.002723628472057695</v>
+        <v>0.002699723452397068</v>
       </c>
       <c r="X16">
-        <v>1.137214393343505E-05</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Z16">
-        <v>7.5814292889567E-06</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="AB16">
         <v>0</v>
       </c>
       <c r="AC16">
-        <v>7.5814292889567E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="AD16">
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>0.0005534443380938391</v>
+        <v>0.00052021891740316</v>
       </c>
       <c r="AF16">
-        <v>0.0002634546677912454</v>
+        <v>0.0002668781063257847</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AH16">
         <v>0</v>
       </c>
       <c r="AI16">
-        <v>0.0005477582661271216</v>
+        <v>0.00052021891740316</v>
       </c>
     </row>
     <row r="17" spans="1:35">
@@ -2193,25 +2193,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.004209588612693208</v>
+        <v>0.003954824111856737</v>
       </c>
       <c r="C17">
-        <v>0.01036760455264829</v>
+        <v>0.01068285985031619</v>
       </c>
       <c r="D17">
-        <v>3.79071464447835E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="E17">
-        <v>0</v>
+        <v>2.51406911756174E-05</v>
       </c>
       <c r="F17">
-        <v>7.391893556732783E-05</v>
+        <v>0.0001121661606296776</v>
       </c>
       <c r="G17">
-        <v>2.27442878668701E-05</v>
+        <v>2.900848981802007E-05</v>
       </c>
       <c r="H17">
-        <v>0.007217520683086779</v>
+        <v>0.00742810729273434</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -2220,79 +2220,79 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>5.686071966717526E-06</v>
+        <v>2.127289253321472E-05</v>
       </c>
       <c r="L17">
-        <v>0.00811212933918367</v>
+        <v>0.008338973873020171</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
       <c r="N17">
-        <v>0.000108035367367633</v>
+        <v>0.0001740509389081204</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="P17">
-        <v>5.686071966717526E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="Q17">
-        <v>0.001705821590015258</v>
+        <v>0.001713434798584386</v>
       </c>
       <c r="R17">
-        <v>0.005879398413585922</v>
+        <v>0.00599702179504535</v>
       </c>
       <c r="S17">
-        <v>1.895357322239175E-06</v>
+        <v>2.707459049681873E-05</v>
       </c>
       <c r="T17">
-        <v>2.084893054463093E-05</v>
+        <v>2.51406911756174E-05</v>
       </c>
       <c r="U17">
-        <v>0.0002312335933131794</v>
+        <v>0.000286217099537798</v>
       </c>
       <c r="V17">
-        <v>1.705821590015258E-05</v>
+        <v>2.127289253321472E-05</v>
       </c>
       <c r="W17">
-        <v>0.001330540840211901</v>
+        <v>0.001392407511264964</v>
       </c>
       <c r="X17">
-        <v>3.79071464447835E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Y17">
-        <v>2.27442878668701E-05</v>
+        <v>2.51406911756174E-05</v>
       </c>
       <c r="Z17">
-        <v>0.0002577685958245278</v>
+        <v>0.0002359357171865633</v>
       </c>
       <c r="AA17">
-        <v>6.444214895613195E-05</v>
+        <v>7.155427488444951E-05</v>
       </c>
       <c r="AB17">
-        <v>1.895357322239175E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="AC17">
-        <v>0.0001421517991679381</v>
+        <v>0.0001489102477325031</v>
       </c>
       <c r="AD17">
         <v>0</v>
       </c>
       <c r="AE17">
-        <v>0.002376778082087926</v>
+        <v>0.002370960567792841</v>
       </c>
       <c r="AF17">
-        <v>0.0008150036485628453</v>
+        <v>0.0008625190972557969</v>
       </c>
       <c r="AG17">
         <v>0</v>
       </c>
       <c r="AH17">
-        <v>0.0001535239431013732</v>
+        <v>0.0001469763484113017</v>
       </c>
       <c r="AI17">
-        <v>0.001313482624311748</v>
+        <v>0.001340192229592527</v>
       </c>
     </row>
     <row r="18" spans="1:35">
@@ -2300,88 +2300,88 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.01590583864823116</v>
+        <v>0.01515016728229128</v>
       </c>
       <c r="C18">
-        <v>0.000227442878668701</v>
+        <v>0.0002301340192229592</v>
       </c>
       <c r="D18">
-        <v>0.002909373489637134</v>
+        <v>0.002925989672977625</v>
       </c>
       <c r="E18">
-        <v>0.006906682082239555</v>
+        <v>0.007314007232783461</v>
       </c>
       <c r="F18">
-        <v>0.004660683655386131</v>
+        <v>0.004674234659343635</v>
       </c>
       <c r="G18">
-        <v>0.008045791832905299</v>
+        <v>0.008360246765553385</v>
       </c>
       <c r="H18">
-        <v>0.003011722785038049</v>
+        <v>0.00309230501460094</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.001508704428502383</v>
+        <v>0.001516177067821849</v>
       </c>
       <c r="K18">
-        <v>0.001214924043555311</v>
+        <v>0.001181612485254018</v>
       </c>
       <c r="L18">
-        <v>0.002518929881255864</v>
+        <v>0.002548879305343364</v>
       </c>
       <c r="M18">
-        <v>0.002875257057836829</v>
+        <v>0.002929857471620027</v>
       </c>
       <c r="N18">
-        <v>0.001921892324750524</v>
+        <v>0.001974511206946566</v>
       </c>
       <c r="O18">
-        <v>0.004283507548260536</v>
+        <v>0.00440735655301785</v>
       </c>
       <c r="P18">
-        <v>0.003676993205144</v>
+        <v>0.003881335937651086</v>
       </c>
       <c r="Q18">
-        <v>0.00535438443532567</v>
+        <v>0.005558026649132646</v>
       </c>
       <c r="R18">
-        <v>6.444214895613195E-05</v>
+        <v>0.000131505153841691</v>
       </c>
       <c r="S18">
-        <v>0.000638735417594602</v>
+        <v>0.0007426173393413139</v>
       </c>
       <c r="T18">
-        <v>0.005490850162526891</v>
+        <v>0.005627647024695894</v>
       </c>
       <c r="U18">
-        <v>0.007551103571800874</v>
+        <v>0.007754936278017367</v>
       </c>
       <c r="V18">
-        <v>0.007829721098170032</v>
+        <v>0.007938656713531493</v>
       </c>
       <c r="W18">
-        <v>8.150036485628454E-05</v>
+        <v>0.0001024966640236709</v>
       </c>
       <c r="X18">
-        <v>0.0001686868016792866</v>
+        <v>0.0001701831402657178</v>
       </c>
       <c r="Y18">
-        <v>0.0002179660920575051</v>
+        <v>0.0002069272273685432</v>
       </c>
       <c r="Z18">
-        <v>6.254679163389278E-05</v>
+        <v>6.57525769208455E-05</v>
       </c>
       <c r="AA18">
-        <v>0.0009912718795310885</v>
+        <v>0.001146802297472394</v>
       </c>
       <c r="AB18">
-        <v>0.001122051534765592</v>
+        <v>0.001077181921909145</v>
       </c>
       <c r="AC18">
-        <v>9.287250878971959E-05</v>
+        <v>8.895936877526156E-05</v>
       </c>
       <c r="AD18">
         <v>0</v>
@@ -2393,13 +2393,13 @@
         <v>0</v>
       </c>
       <c r="AG18">
-        <v>9.476786611195875E-06</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="AH18">
-        <v>0.001387401559879076</v>
+        <v>0.001378870216016554</v>
       </c>
       <c r="AI18">
-        <v>0.0004340368267927711</v>
+        <v>0.0004718714343731266</v>
       </c>
     </row>
     <row r="19" spans="1:35">
@@ -2407,13 +2407,13 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4.359321841150103E-05</v>
+        <v>3.094238913922141E-05</v>
       </c>
       <c r="C19">
-        <v>0.0008377479364297154</v>
+        <v>0.000789030923050146</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -2425,79 +2425,79 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.001192179755688441</v>
+        <v>0.001191281981860024</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0.0006216772016944494</v>
+        <v>0.0006304511787116363</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
       <c r="N19">
-        <v>2.27442878668701E-05</v>
+        <v>2.51406911756174E-05</v>
       </c>
       <c r="O19">
-        <v>0.0006482122042057979</v>
+        <v>0.0006401206753176429</v>
       </c>
       <c r="P19">
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>6.444214895613195E-05</v>
+        <v>5.414918099363747E-05</v>
       </c>
       <c r="R19">
-        <v>0.01049459349323831</v>
+        <v>0.0108375717960123</v>
       </c>
       <c r="S19">
-        <v>1.137214393343505E-05</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="T19">
-        <v>0.005396082296414932</v>
+        <v>0.005561894447775049</v>
       </c>
       <c r="U19">
-        <v>1.326750125567423E-05</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="V19">
-        <v>0.0002880943129803546</v>
+        <v>0.0002881509988589994</v>
       </c>
       <c r="W19">
-        <v>0.0009780043782754144</v>
+        <v>0.001001759848382293</v>
       </c>
       <c r="X19">
-        <v>1.326750125567423E-05</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="Y19">
         <v>0</v>
       </c>
       <c r="Z19">
-        <v>7.5814292889567E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="AB19">
-        <v>6.06514343116536E-05</v>
+        <v>6.962037556324817E-05</v>
       </c>
       <c r="AC19">
-        <v>3.79071464447835E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="AD19">
         <v>0</v>
       </c>
       <c r="AE19">
-        <v>9.666322343419793E-05</v>
+        <v>7.928987216925487E-05</v>
       </c>
       <c r="AF19">
-        <v>3.79071464447835E-05</v>
+        <v>6.188477827844282E-05</v>
       </c>
       <c r="AG19">
         <v>0</v>
@@ -2506,7 +2506,7 @@
         <v>0</v>
       </c>
       <c r="AI19">
-        <v>0.0003449550326475299</v>
+        <v>0.0003597052737434489</v>
       </c>
     </row>
     <row r="20" spans="1:35">
@@ -2514,106 +2514,106 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.0005705025539939917</v>
+        <v>0.0005763019977179988</v>
       </c>
       <c r="C20">
-        <v>0.00712275281697482</v>
+        <v>0.00724051905857781</v>
       </c>
       <c r="D20">
-        <v>7.770965021180617E-05</v>
+        <v>6.57525769208455E-05</v>
       </c>
       <c r="E20">
-        <v>0.0002084893054463093</v>
+        <v>0.0002282001199017579</v>
       </c>
       <c r="F20">
-        <v>7.202357824508865E-05</v>
+        <v>7.735597284805353E-05</v>
       </c>
       <c r="G20">
-        <v>0.0004340368267927711</v>
+        <v>0.0004370612465915025</v>
       </c>
       <c r="H20">
-        <v>0.0056993394679732</v>
+        <v>0.005703069098222747</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>6.254679163389278E-05</v>
+        <v>4.447968438763078E-05</v>
       </c>
       <c r="K20">
-        <v>0.0001004539380786763</v>
+        <v>8.509157013285888E-05</v>
       </c>
       <c r="L20">
-        <v>0.003942343230257484</v>
+        <v>0.003999303796244367</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>1.51628585779134E-05</v>
+        <v>1.933899321201338E-05</v>
       </c>
       <c r="O20">
-        <v>9.476786611195876E-05</v>
+        <v>7.155427488444951E-05</v>
       </c>
       <c r="P20">
-        <v>0.0001156167966565897</v>
+        <v>8.702546945406022E-05</v>
       </c>
       <c r="Q20">
-        <v>0.0003222107447806598</v>
+        <v>0.0003248950859618248</v>
       </c>
       <c r="R20">
-        <v>0.006451796324902152</v>
+        <v>0.006492100021272893</v>
       </c>
       <c r="S20">
-        <v>7.960500753404536E-05</v>
+        <v>8.12237714904562E-05</v>
       </c>
       <c r="T20">
-        <v>0.0001573146577458515</v>
+        <v>0.0001875882341565298</v>
       </c>
       <c r="U20">
-        <v>0.0003885482510590309</v>
+        <v>0.000388713763561469</v>
       </c>
       <c r="V20">
-        <v>0.0008206897205295629</v>
+        <v>0.0008702546945406022</v>
       </c>
       <c r="W20">
-        <v>0.002077311625174136</v>
+        <v>0.002260728306484364</v>
       </c>
       <c r="X20">
-        <v>5.686071966717526E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="Y20">
-        <v>0.0001156167966565897</v>
+        <v>0.0001237695565568856</v>
       </c>
       <c r="Z20">
-        <v>1.51628585779134E-05</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="AA20">
-        <v>1.51628585779134E-05</v>
+        <v>1.933899321201338E-05</v>
       </c>
       <c r="AB20">
-        <v>0.0002103846627685484</v>
+        <v>0.0001933899321201338</v>
       </c>
       <c r="AC20">
-        <v>1.51628585779134E-05</v>
+        <v>2.320679185441606E-05</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
       <c r="AE20">
-        <v>0.001455634423479687</v>
+        <v>0.001516177067821849</v>
       </c>
       <c r="AF20">
-        <v>0.0004946882611044247</v>
+        <v>0.000514417219439556</v>
       </c>
       <c r="AG20">
         <v>0</v>
       </c>
       <c r="AH20">
-        <v>0.0001876403749016783</v>
+        <v>0.0001933899321201338</v>
       </c>
       <c r="AI20">
-        <v>0.0007657243581846268</v>
+        <v>0.0008161055135469647</v>
       </c>
     </row>
     <row r="21" spans="1:35">
@@ -2621,106 +2621,106 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.002606116318078866</v>
+        <v>0.002535342010094954</v>
       </c>
       <c r="C21">
-        <v>0.001889671250272458</v>
+        <v>0.001910692529346922</v>
       </c>
       <c r="D21">
-        <v>2.463964518910928E-05</v>
+        <v>2.320679185441606E-05</v>
       </c>
       <c r="E21">
-        <v>0.002846826698003241</v>
+        <v>0.002939526968226034</v>
       </c>
       <c r="F21">
-        <v>1.326750125567423E-05</v>
+        <v>3.481018778162409E-05</v>
       </c>
       <c r="G21">
-        <v>0.0007524568569289526</v>
+        <v>0.0007754936278017366</v>
       </c>
       <c r="H21">
-        <v>0.005109883340756816</v>
+        <v>0.005295016341449264</v>
       </c>
       <c r="I21">
-        <v>3.79071464447835E-05</v>
+        <v>4.447968438763078E-05</v>
       </c>
       <c r="J21">
-        <v>2.084893054463093E-05</v>
+        <v>3.674408710282543E-05</v>
       </c>
       <c r="K21">
-        <v>5.686071966717526E-06</v>
+        <v>1.933899321201338E-05</v>
       </c>
       <c r="L21">
-        <v>0.001912415538139328</v>
+        <v>0.001943568817807345</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
       <c r="N21">
-        <v>0.004385856843661451</v>
+        <v>0.004389951459127038</v>
       </c>
       <c r="O21">
-        <v>0.003024990286293724</v>
+        <v>0.003045891430892108</v>
       </c>
       <c r="P21">
-        <v>0.0003942343230257484</v>
+        <v>0.0004196561527006904</v>
       </c>
       <c r="Q21">
-        <v>0.000530700050226969</v>
+        <v>0.0005666325011119921</v>
       </c>
       <c r="R21">
-        <v>0.002247893784175662</v>
+        <v>0.002444448741998491</v>
       </c>
       <c r="S21">
-        <v>0.003703528207655348</v>
+        <v>0.003834922353942254</v>
       </c>
       <c r="T21">
-        <v>0.0003184200301361815</v>
+        <v>0.0003364984818890329</v>
       </c>
       <c r="U21">
-        <v>0.0006311539883056453</v>
+        <v>0.0007000715542748845</v>
       </c>
       <c r="V21">
-        <v>0.008549956880620919</v>
+        <v>0.008921077568701773</v>
       </c>
       <c r="W21">
-        <v>0.0006747472067171464</v>
+        <v>0.0007580885339109246</v>
       </c>
       <c r="X21">
-        <v>3.03257171558268E-05</v>
+        <v>4.06118857452281E-05</v>
       </c>
       <c r="Y21">
-        <v>0.0001231982259455464</v>
+        <v>9.282716741766424E-05</v>
       </c>
       <c r="Z21">
-        <v>3.03257171558268E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="AA21">
-        <v>0.0001648960870348082</v>
+        <v>0.0001972577307625365</v>
       </c>
       <c r="AB21">
-        <v>2.843035983358763E-05</v>
+        <v>3.287628846042275E-05</v>
       </c>
       <c r="AC21">
         <v>0</v>
       </c>
       <c r="AD21">
-        <v>3.601178912254433E-05</v>
+        <v>3.481018778162409E-05</v>
       </c>
       <c r="AE21">
-        <v>0.002202405208441921</v>
+        <v>0.002179504534993908</v>
       </c>
       <c r="AF21">
-        <v>0.001758891595037955</v>
+        <v>0.001827534858535265</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AH21">
-        <v>0.0001592100150680907</v>
+        <v>0.000143108549768899</v>
       </c>
       <c r="AI21">
-        <v>0.002795652050302783</v>
+        <v>0.002869906592662786</v>
       </c>
     </row>
     <row r="22" spans="1:35">
@@ -2728,106 +2728,106 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.007154973891452887</v>
+        <v>0.006911756173973583</v>
       </c>
       <c r="C22">
-        <v>0.004004890021891377</v>
+        <v>0.004155949641261676</v>
       </c>
       <c r="D22">
-        <v>1.51628585779134E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="E22">
-        <v>0.004006785379213616</v>
+        <v>0.004014774990813978</v>
       </c>
       <c r="F22">
-        <v>9.476786611195875E-06</v>
+        <v>5.221528167243614E-05</v>
       </c>
       <c r="G22">
-        <v>0.0002122800200907876</v>
+        <v>0.000257208609719778</v>
       </c>
       <c r="H22">
-        <v>0.004455985064584301</v>
+        <v>0.004457637935369085</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="L22">
-        <v>0.002899896703025938</v>
+        <v>0.002852501498771974</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.000248291809213332</v>
+        <v>0.0002823493008953954</v>
       </c>
       <c r="O22">
-        <v>4.169786108926186E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="P22">
-        <v>2.843035983358763E-05</v>
+        <v>4.254578506642944E-05</v>
       </c>
       <c r="Q22">
-        <v>0.0004037111096369443</v>
+        <v>0.0003848459649190663</v>
       </c>
       <c r="R22">
-        <v>0.009038959069758627</v>
+        <v>0.009334932023438859</v>
       </c>
       <c r="S22">
-        <v>0.0002407103799243752</v>
+        <v>0.0002494730124349726</v>
       </c>
       <c r="T22">
-        <v>0.001893461964916936</v>
+        <v>0.001887485737492506</v>
       </c>
       <c r="U22">
-        <v>0.0009609461623752618</v>
+        <v>0.0009998259490610918</v>
       </c>
       <c r="V22">
-        <v>0.0001421517991679381</v>
+        <v>0.0001895221334777311</v>
       </c>
       <c r="W22">
-        <v>0.0009211436586082392</v>
+        <v>0.0008857258891102129</v>
       </c>
       <c r="X22">
         <v>0</v>
       </c>
       <c r="Y22">
-        <v>1.705821590015258E-05</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="Z22">
-        <v>0.0004131878962481402</v>
+        <v>0.0004854087296215359</v>
       </c>
       <c r="AA22">
-        <v>3.601178912254433E-05</v>
+        <v>5.801697963604015E-05</v>
       </c>
       <c r="AB22">
-        <v>3.79071464447835E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="AC22">
-        <v>3.79071464447835E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AD22">
         <v>0</v>
       </c>
       <c r="AE22">
-        <v>0.00199960197496233</v>
+        <v>0.002049933280473419</v>
       </c>
       <c r="AF22">
-        <v>0.004469252565839975</v>
+        <v>0.004515654915005125</v>
       </c>
       <c r="AG22">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AH22">
-        <v>5.686071966717526E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AI22">
-        <v>0.0006633750627837113</v>
+        <v>0.0006613935678508577</v>
       </c>
     </row>
     <row r="23" spans="1:35">
@@ -2835,88 +2835,88 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.007998407899849319</v>
+        <v>0.007764605774623373</v>
       </c>
       <c r="C23">
-        <v>1.895357322239175E-05</v>
+        <v>3.481018778162409E-05</v>
       </c>
       <c r="D23">
-        <v>0.0005610257673827958</v>
+        <v>0.0006246494807480322</v>
       </c>
       <c r="E23">
-        <v>0.0003923389657035092</v>
+        <v>0.0004602680384459185</v>
       </c>
       <c r="F23">
-        <v>0.0006937007799395381</v>
+        <v>0.0006729969637780657</v>
       </c>
       <c r="G23">
-        <v>0.002384359511376882</v>
+        <v>0.002504399620955733</v>
       </c>
       <c r="H23">
-        <v>5.30700050226969E-05</v>
+        <v>6.381867759964416E-05</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0.0007505614996067134</v>
+        <v>0.0008315767081165755</v>
       </c>
       <c r="K23">
-        <v>0.0001592100150680907</v>
+        <v>0.0001392407511264963</v>
       </c>
       <c r="L23">
-        <v>0.0002046985908018309</v>
+        <v>0.0002282001199017579</v>
       </c>
       <c r="M23">
-        <v>6.633750627837113E-05</v>
+        <v>6.768647624204685E-05</v>
       </c>
       <c r="N23">
-        <v>0.0008832365121634557</v>
+        <v>0.000908932680964629</v>
       </c>
       <c r="O23">
-        <v>0.0005420721941604041</v>
+        <v>0.0005511613065423814</v>
       </c>
       <c r="P23">
-        <v>0.0006728518493949072</v>
+        <v>0.0007058732522384884</v>
       </c>
       <c r="Q23">
-        <v>5.30700050226969E-05</v>
+        <v>8.895936877526156E-05</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>2.320679185441606E-05</v>
       </c>
       <c r="S23">
-        <v>0.0006254679163389278</v>
+        <v>0.0007000715542748845</v>
       </c>
       <c r="T23">
-        <v>0.0002691407397579629</v>
+        <v>0.0002610764083621807</v>
       </c>
       <c r="U23">
-        <v>0.001694449446081823</v>
+        <v>0.001674756812160359</v>
       </c>
       <c r="V23">
-        <v>0.0008718643682300206</v>
+        <v>0.0009108665802858303</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="X23">
-        <v>3.601178912254433E-05</v>
+        <v>4.06118857452281E-05</v>
       </c>
       <c r="Y23">
-        <v>0.0002899896703025938</v>
+        <v>0.0003132916900346168</v>
       </c>
       <c r="Z23">
-        <v>2.27442878668701E-05</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="AA23">
-        <v>0.0002880943129803546</v>
+        <v>0.0002958865961438048</v>
       </c>
       <c r="AB23">
-        <v>0.0005401768368381649</v>
+        <v>0.0005453596085787774</v>
       </c>
       <c r="AC23">
-        <v>0.0001231982259455464</v>
+        <v>0.000137306851805295</v>
       </c>
       <c r="AD23">
         <v>0</v>
@@ -2928,13 +2928,13 @@
         <v>0</v>
       </c>
       <c r="AG23">
-        <v>7.5814292889567E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AH23">
-        <v>0.0006368400602723629</v>
+        <v>0.0007213444468080992</v>
       </c>
       <c r="AI23">
-        <v>7.5814292889567E-06</v>
+        <v>1.933899321201338E-05</v>
       </c>
     </row>
     <row r="24" spans="1:35">
@@ -2942,25 +2942,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.0001971171615128742</v>
+        <v>0.0001895221334777311</v>
       </c>
       <c r="C24">
-        <v>0.0007714104301513443</v>
+        <v>0.0008818580904678102</v>
       </c>
       <c r="D24">
-        <v>3.79071464447835E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="E24">
-        <v>7.5814292889567E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="F24">
-        <v>5.686071966717526E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="G24">
-        <v>5.686071966717526E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="H24">
-        <v>0.0002331289506354185</v>
+        <v>0.0002533408110773753</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2972,55 +2972,55 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>0.0003809668217700742</v>
+        <v>0.000400317159488677</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
       <c r="N24">
-        <v>3.79071464447835E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="O24">
-        <v>3.980250376702268E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="P24">
-        <v>9.476786611195875E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="Q24">
-        <v>9.476786611195875E-06</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="R24">
-        <v>0.0002103846627685484</v>
+        <v>0.0001933899321201338</v>
       </c>
       <c r="S24">
-        <v>5.686071966717526E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="T24">
-        <v>0.0001364657272012206</v>
+        <v>0.000119901757914483</v>
       </c>
       <c r="U24">
-        <v>6.06514343116536E-05</v>
+        <v>4.834748303003345E-05</v>
       </c>
       <c r="V24">
-        <v>7.5814292889567E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="W24">
-        <v>9.097715146748041E-05</v>
+        <v>9.476106673886557E-05</v>
       </c>
       <c r="X24">
-        <v>7.391893556732783E-05</v>
+        <v>7.928987216925487E-05</v>
       </c>
       <c r="Y24">
-        <v>1.137214393343505E-05</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="Z24">
         <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AB24">
-        <v>1.895357322239175E-06</v>
+        <v>0</v>
       </c>
       <c r="AC24">
         <v>0</v>
@@ -3029,10 +3029,10 @@
         <v>0</v>
       </c>
       <c r="AE24">
-        <v>5.30700050226969E-05</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="AF24">
-        <v>9.476786611195875E-06</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="AG24">
         <v>0</v>
@@ -3041,7 +3041,7 @@
         <v>0</v>
       </c>
       <c r="AI24">
-        <v>2.084893054463093E-05</v>
+        <v>2.127289253321472E-05</v>
       </c>
     </row>
     <row r="25" spans="1:35">
@@ -3049,85 +3049,85 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.005494640877171369</v>
+        <v>0.005155775590322768</v>
       </c>
       <c r="C25">
-        <v>0.0005079557623600989</v>
+        <v>0.0005395579106151734</v>
       </c>
       <c r="D25">
-        <v>3.79071464447835E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="E25">
-        <v>5.875607698941443E-05</v>
+        <v>9.476106673886557E-05</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>5.414918099363747E-05</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="H25">
-        <v>0.0002710360970802021</v>
+        <v>0.0002765476029317914</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="K25">
-        <v>3.79071464447835E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="L25">
-        <v>0.0003260014594251381</v>
+        <v>0.0003461679784950395</v>
       </c>
       <c r="M25">
         <v>0</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="O25">
-        <v>0.0003203153874584206</v>
+        <v>0.0003364984818890329</v>
       </c>
       <c r="P25">
-        <v>1.326750125567423E-05</v>
+        <v>2.707459049681873E-05</v>
       </c>
       <c r="Q25">
-        <v>2.843035983358763E-05</v>
+        <v>5.608308031483881E-05</v>
       </c>
       <c r="R25">
-        <v>0.001101202604220961</v>
+        <v>0.001146802297472394</v>
       </c>
       <c r="S25">
-        <v>5.686071966717526E-06</v>
+        <v>4.834748303003345E-05</v>
       </c>
       <c r="T25">
-        <v>0.0002084893054463093</v>
+        <v>0.0002165967239745499</v>
       </c>
       <c r="U25">
-        <v>5.30700050226969E-05</v>
+        <v>8.895936877526156E-05</v>
       </c>
       <c r="V25">
-        <v>3.79071464447835E-06</v>
+        <v>1.933899321201338E-05</v>
       </c>
       <c r="W25">
-        <v>0.0001838496602572</v>
+        <v>0.0001817865361929258</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Z25">
-        <v>3.79071464447835E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AB25">
-        <v>1.895357322239175E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AC25">
         <v>0</v>
@@ -3145,10 +3145,10 @@
         <v>0</v>
       </c>
       <c r="AH25">
-        <v>1.895357322239175E-06</v>
+        <v>0</v>
       </c>
       <c r="AI25">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
     </row>
     <row r="26" spans="1:35">
@@ -3156,25 +3156,25 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>0.0004075018242814226</v>
+        <v>0.0004254578506642944</v>
       </c>
       <c r="C26">
-        <v>0.002134172344841311</v>
+        <v>0.002156297743139492</v>
       </c>
       <c r="D26">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="E26">
-        <v>4.927929037821855E-05</v>
+        <v>5.801697963604015E-05</v>
       </c>
       <c r="F26">
-        <v>7.5814292889567E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.0006501075615280371</v>
+        <v>0.0007580885339109246</v>
       </c>
       <c r="I26">
         <v>0</v>
@@ -3186,49 +3186,49 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>2.463964518910928E-05</v>
+        <v>2.51406911756174E-05</v>
       </c>
       <c r="M26">
         <v>0</v>
       </c>
       <c r="N26">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="O26">
         <v>0</v>
       </c>
       <c r="P26">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="Q26">
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0.0001364657272012206</v>
+        <v>0.0001508441470537044</v>
       </c>
       <c r="S26">
-        <v>7.5814292889567E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="T26">
-        <v>9.476786611195875E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="V26">
         <v>0</v>
       </c>
       <c r="W26">
-        <v>0.0002577685958245278</v>
+        <v>0.0002475391131137713</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="Y26">
         <v>0</v>
       </c>
       <c r="Z26">
-        <v>1.895357322239175E-06</v>
+        <v>0</v>
       </c>
       <c r="AA26">
         <v>0</v>
@@ -3243,7 +3243,7 @@
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>0.0001762682309682433</v>
+        <v>0.0002165967239745499</v>
       </c>
       <c r="AF26">
         <v>0</v>
@@ -3263,10 +3263,10 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>0.0001554193004236123</v>
+        <v>0.0001624475429809124</v>
       </c>
       <c r="C27">
-        <v>0.0008851318694856948</v>
+        <v>0.0008605851979345956</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3275,13 +3275,13 @@
         <v>0</v>
       </c>
       <c r="F27">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="G27">
         <v>0</v>
       </c>
       <c r="H27">
-        <v>0.001993915902995612</v>
+        <v>0.002003519696764587</v>
       </c>
       <c r="I27">
         <v>0</v>
@@ -3293,40 +3293,40 @@
         <v>0</v>
       </c>
       <c r="L27">
-        <v>0.001279366192511443</v>
+        <v>0.001202885377787232</v>
       </c>
       <c r="M27">
         <v>0</v>
       </c>
       <c r="N27">
-        <v>9.287250878971959E-05</v>
+        <v>6.962037556324817E-05</v>
       </c>
       <c r="O27">
-        <v>7.5814292889567E-06</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="P27">
-        <v>7.5814292889567E-06</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="Q27">
-        <v>0.0002843035983358763</v>
+        <v>0.0002591425090409793</v>
       </c>
       <c r="R27">
-        <v>5.686071966717525E-05</v>
+        <v>7.348817420565085E-05</v>
       </c>
       <c r="S27">
-        <v>0</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="T27">
-        <v>0.0001061400100453938</v>
+        <v>0.0001295712545204897</v>
       </c>
       <c r="U27">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="V27">
-        <v>0.002219463424342074</v>
+        <v>0.002222050320060338</v>
       </c>
       <c r="W27">
-        <v>0.0001971171615128742</v>
+        <v>0.0001875882341565298</v>
       </c>
       <c r="X27">
         <v>0</v>
@@ -3335,13 +3335,13 @@
         <v>0</v>
       </c>
       <c r="Z27">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AA27">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AB27">
-        <v>4.738393305597938E-05</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="AC27">
         <v>0</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="AF27">
-        <v>0.0002615593104690062</v>
+        <v>0.0002378696165077646</v>
       </c>
       <c r="AG27">
         <v>0</v>
@@ -3370,25 +3370,25 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>0.0002009078761573526</v>
+        <v>0.0001798526368717245</v>
       </c>
       <c r="C28">
-        <v>0.0008055268619516495</v>
+        <v>0.0008141716142257634</v>
       </c>
       <c r="D28">
-        <v>3.79071464447835E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="E28">
-        <v>9.476786611195875E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="F28">
-        <v>0</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="G28">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="H28">
-        <v>0.002062148766596222</v>
+        <v>0.002086677367576244</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -3400,28 +3400,28 @@
         <v>0</v>
       </c>
       <c r="L28">
-        <v>0.001544716217624928</v>
+        <v>0.001564524550851883</v>
       </c>
       <c r="M28">
         <v>0</v>
       </c>
       <c r="N28">
-        <v>7.391893556732783E-05</v>
+        <v>8.509157013285888E-05</v>
       </c>
       <c r="O28">
-        <v>0.0006880147079728206</v>
+        <v>0.0007097410508808911</v>
       </c>
       <c r="P28">
-        <v>3.79071464447835E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Q28">
-        <v>8.150036485628454E-05</v>
+        <v>8.509157013285888E-05</v>
       </c>
       <c r="R28">
-        <v>9.666322343419793E-05</v>
+        <v>0.0001063644626660736</v>
       </c>
       <c r="S28">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="T28">
         <v>0</v>
@@ -3430,10 +3430,10 @@
         <v>0</v>
       </c>
       <c r="V28">
-        <v>7.5814292889567E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="W28">
-        <v>0.0001686868016792866</v>
+        <v>0.0001489102477325031</v>
       </c>
       <c r="X28">
         <v>0</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="Z28">
-        <v>2.27442878668701E-05</v>
+        <v>1.933899321201338E-05</v>
       </c>
       <c r="AA28">
         <v>0</v>
@@ -3460,7 +3460,7 @@
         <v>0</v>
       </c>
       <c r="AF28">
-        <v>0.0007695150728291051</v>
+        <v>0.0008025682182985554</v>
       </c>
       <c r="AG28">
         <v>0</v>
@@ -3477,16 +3477,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>7.5814292889567E-06</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="C29">
-        <v>0.000303257171558268</v>
+        <v>0.0003036221934286101</v>
       </c>
       <c r="D29">
         <v>0</v>
       </c>
       <c r="E29">
-        <v>1.895357322239175E-05</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="F29">
         <v>0</v>
@@ -3495,7 +3495,7 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0.00121871475819979</v>
+        <v>0.001280241350635286</v>
       </c>
       <c r="I29">
         <v>0</v>
@@ -3507,7 +3507,7 @@
         <v>0</v>
       </c>
       <c r="L29">
-        <v>0.0005875607698941443</v>
+        <v>0.0006381867759964416</v>
       </c>
       <c r="M29">
         <v>0</v>
@@ -3522,10 +3522,10 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>2.084893054463093E-05</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="R29">
-        <v>1.895357322239175E-06</v>
+        <v>0</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -3540,7 +3540,7 @@
         <v>0</v>
       </c>
       <c r="W29">
-        <v>8.339572217852371E-05</v>
+        <v>7.155427488444951E-05</v>
       </c>
       <c r="X29">
         <v>0</v>
@@ -3567,7 +3567,7 @@
         <v>0</v>
       </c>
       <c r="AF29">
-        <v>9.476786611195875E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="AG29">
         <v>0</v>
@@ -3602,7 +3602,7 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>3.222107447806598E-05</v>
+        <v>3.287628846042275E-05</v>
       </c>
       <c r="I30">
         <v>0</v>
@@ -3683,7 +3683,7 @@
         <v>0</v>
       </c>
       <c r="AI30">
-        <v>8.529107950076289E-05</v>
+        <v>8.895936877526156E-05</v>
       </c>
     </row>
     <row r="31" spans="1:35">
@@ -3691,88 +3691,88 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>0.005642478748306024</v>
+        <v>0.005583167340308263</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="D31">
-        <v>3.601178912254433E-05</v>
+        <v>5.414918099363747E-05</v>
       </c>
       <c r="E31">
-        <v>0.0005231186209380123</v>
+        <v>0.0005917731922876095</v>
       </c>
       <c r="F31">
-        <v>1.705821590015258E-05</v>
+        <v>3.094238913922141E-05</v>
       </c>
       <c r="G31">
-        <v>3.79071464447835E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="H31">
-        <v>0.0007903640033737361</v>
+        <v>0.0008064360169409581</v>
       </c>
       <c r="I31">
         <v>0</v>
       </c>
       <c r="J31">
-        <v>1.51628585779134E-05</v>
+        <v>1.353729524840937E-05</v>
       </c>
       <c r="K31">
-        <v>7.5814292889567E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="L31">
-        <v>7.5814292889567E-06</v>
+        <v>5.02813823512348E-05</v>
       </c>
       <c r="M31">
-        <v>0.001095516532254243</v>
+        <v>0.001094587015799957</v>
       </c>
       <c r="N31">
-        <v>0.0001497332284568948</v>
+        <v>0.0001740509389081204</v>
       </c>
       <c r="O31">
-        <v>0.001285052264478161</v>
+        <v>0.001276373551992883</v>
       </c>
       <c r="P31">
-        <v>0.0006690611347504288</v>
+        <v>0.000680732561062871</v>
       </c>
       <c r="Q31">
-        <v>0.002405208441921513</v>
+        <v>0.002566284399234176</v>
       </c>
       <c r="R31">
-        <v>0</v>
+        <v>1.933899321201338E-05</v>
       </c>
       <c r="S31">
-        <v>4.359321841150103E-05</v>
+        <v>0.0001121661606296776</v>
       </c>
       <c r="T31">
-        <v>0.0001648960870348082</v>
+        <v>0.0001953238314413352</v>
       </c>
       <c r="U31">
-        <v>0.0004340368267927711</v>
+        <v>0.0004235239513430931</v>
       </c>
       <c r="V31">
-        <v>0.0002539778811800495</v>
+        <v>0.0002939526968226034</v>
       </c>
       <c r="W31">
-        <v>0</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="X31">
         <v>0</v>
       </c>
       <c r="Y31">
-        <v>0.001178912254432767</v>
+        <v>0.001177744686611615</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AA31">
-        <v>7.5814292889567E-05</v>
+        <v>7.542207352685219E-05</v>
       </c>
       <c r="AB31">
-        <v>0.0005837700552496659</v>
+        <v>0.0006033765882148175</v>
       </c>
       <c r="AC31">
-        <v>2.653500251134845E-05</v>
+        <v>2.320679185441606E-05</v>
       </c>
       <c r="AD31">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="AI31">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
     </row>
     <row r="32" spans="1:35">
@@ -3798,88 +3798,88 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>0.009653054842164119</v>
+        <v>0.009265311647875611</v>
       </c>
       <c r="C32">
-        <v>1.895357322239175E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="D32">
-        <v>3.79071464447835E-06</v>
+        <v>2.320679185441606E-05</v>
       </c>
       <c r="E32">
-        <v>1.895357322239175E-06</v>
+        <v>6.188477827844282E-05</v>
       </c>
       <c r="F32">
-        <v>1.137214393343505E-05</v>
+        <v>4.447968438763078E-05</v>
       </c>
       <c r="G32">
-        <v>0.0001421517991679381</v>
+        <v>0.0002011255294049392</v>
       </c>
       <c r="H32">
-        <v>0.0002805128836913979</v>
+        <v>0.0002726798042893887</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>0</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="K32">
-        <v>2.653500251134845E-05</v>
+        <v>3.674408710282543E-05</v>
       </c>
       <c r="L32">
-        <v>3.222107447806598E-05</v>
+        <v>7.928987216925487E-05</v>
       </c>
       <c r="M32">
         <v>0</v>
       </c>
       <c r="N32">
-        <v>0.0001895357322239175</v>
+        <v>0.0002591425090409793</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="P32">
-        <v>0.0004567811146596412</v>
+        <v>0.0004815409309791332</v>
       </c>
       <c r="Q32">
-        <v>0.0005041650477156206</v>
+        <v>0.0005705002997543947</v>
       </c>
       <c r="R32">
-        <v>0</v>
+        <v>4.641358370883212E-05</v>
       </c>
       <c r="S32">
-        <v>3.79071464447835E-06</v>
+        <v>7.348817420565085E-05</v>
       </c>
       <c r="T32">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="U32">
-        <v>0.0004700486159153154</v>
+        <v>0.0005492274072211801</v>
       </c>
       <c r="V32">
-        <v>0.0002463964518910928</v>
+        <v>0.0003190933879982208</v>
       </c>
       <c r="W32">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="X32">
-        <v>0</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="Y32">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="Z32">
-        <v>0.0001990125188351134</v>
+        <v>0.0001856543348353285</v>
       </c>
       <c r="AA32">
-        <v>0</v>
+        <v>1.547119456961071E-05</v>
       </c>
       <c r="AB32">
-        <v>0.0001326750125567423</v>
+        <v>0.000143108549768899</v>
       </c>
       <c r="AC32">
-        <v>1.895357322239175E-06</v>
+        <v>0</v>
       </c>
       <c r="AD32">
         <v>0</v>
@@ -3894,10 +3894,10 @@
         <v>0</v>
       </c>
       <c r="AH32">
-        <v>0.0002331289506354185</v>
+        <v>0.0002320679185441606</v>
       </c>
       <c r="AI32">
-        <v>0.0003885482510590309</v>
+        <v>0.0003790442669554623</v>
       </c>
     </row>
     <row r="33" spans="1:35">
@@ -3917,7 +3917,7 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="G33">
         <v>0</v>
@@ -3944,10 +3944,10 @@
         <v>0</v>
       </c>
       <c r="O33">
-        <v>1.137214393343505E-05</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="P33">
-        <v>3.79071464447835E-06</v>
+        <v>0</v>
       </c>
       <c r="Q33">
         <v>0</v>
@@ -3959,13 +3959,13 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>3.79071464447835E-06</v>
+        <v>9.669496606006692E-06</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0.0007581429288956701</v>
+        <v>0.0007987004196561527</v>
       </c>
       <c r="W33">
         <v>0</v>
@@ -3974,16 +3974,16 @@
         <v>0</v>
       </c>
       <c r="Y33">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="Z33">
-        <v>3.79071464447835E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AA33">
         <v>0</v>
       </c>
       <c r="AB33">
-        <v>3.79071464447835E-06</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AC33">
         <v>0</v>
@@ -4012,88 +4012,88 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>0.004310042550771884</v>
+        <v>0.004271983600533756</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="D34">
-        <v>0.0001061400100453938</v>
+        <v>0.0001102322613084763</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>2.127289253321472E-05</v>
       </c>
       <c r="F34">
-        <v>2.843035983358763E-05</v>
+        <v>6.381867759964416E-05</v>
       </c>
       <c r="G34">
-        <v>0.0003961296803479876</v>
+        <v>0.0004177222533794891</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="I34">
         <v>0</v>
       </c>
       <c r="J34">
-        <v>2.27442878668701E-05</v>
+        <v>3.094238913922141E-05</v>
       </c>
       <c r="K34">
-        <v>2.463964518910928E-05</v>
+        <v>2.320679185441606E-05</v>
       </c>
       <c r="L34">
-        <v>1.895357322239175E-06</v>
+        <v>2.127289253321472E-05</v>
       </c>
       <c r="M34">
-        <v>1.895357322239175E-06</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="N34">
-        <v>5.686071966717526E-06</v>
+        <v>2.51406911756174E-05</v>
       </c>
       <c r="O34">
-        <v>3.79071464447835E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="P34">
-        <v>1.895357322239175E-06</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="Q34">
-        <v>3.601178912254433E-05</v>
+        <v>6.188477827844282E-05</v>
       </c>
       <c r="R34">
-        <v>1.895357322239175E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>1.740509389081204E-05</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="U34">
-        <v>2.843035983358763E-05</v>
+        <v>5.801697963604015E-05</v>
       </c>
       <c r="V34">
-        <v>0.0002331289506354185</v>
+        <v>0.0002417374151501673</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>7.735597284805353E-06</v>
       </c>
       <c r="Z34">
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>5.875607698941443E-05</v>
+        <v>0.0001024966640236709</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>3.867798642402676E-06</v>
       </c>
       <c r="AC34">
-        <v>0.0002558732385022887</v>
+        <v>0.0002320679185441606</v>
       </c>
       <c r="AD34">
         <v>0</v>
@@ -4108,7 +4108,7 @@
         <v>0</v>
       </c>
       <c r="AH34">
-        <v>2.653500251134845E-05</v>
+        <v>2.707459049681873E-05</v>
       </c>
       <c r="AI34">
         <v>0</v>
@@ -4119,88 +4119,88 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>0.009129936221226107</v>
+        <v>0.008661935059660794</v>
       </c>
       <c r="C35">
-        <v>1.895357322239175E-06</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="D35">
-        <v>3.03257171558268E-05</v>
+        <v>3.867798642402677E-05</v>
       </c>
       <c r="E35">
-        <v>0.0001914310895461567</v>
+        <v>0.0002494730124349726</v>
       </c>
       <c r="F35">
-        <v>2.843035983358763E-05</v>
+        <v>0.0001005627647024696</v>
       </c>
       <c r="G35">
-        <v>0.0001307796552345031</v>
+        <v>0.0001643814423021138</v>
       </c>
       <c r="H35">
-        <v>6.254679163389278E-05</v>
+        <v>9.476106673886557E-05</v>
       </c>
       <c r="I35">
         <v>0</v>
       </c>
       <c r="J35">
-        <v>6.82328636006103E-05</v>
+        <v>8.895936877526156E-05</v>
       </c>
       <c r="K35">
-        <v>0.0001876403749016783</v>
+        <v>0.0002127289253321472</v>
       </c>
       <c r="L35">
-        <v>2.084893054463093E-05</v>
+        <v>5.801697963604015E-05</v>
       </c>
       <c r="M35">
-        <v>0.0001004539380786763</v>
+        <v>0.000114100059950879</v>
       </c>
       <c r="N35">
-        <v>0.0002407103799243752</v>
+        <v>0.0002900848981802008</v>
       </c>
       <c r="O35">
-        <v>0.0007600382862179093</v>
+        <v>0.0007619563325533273</v>
       </c>
       <c r="P35">
-        <v>0.0003961296803479876</v>
+        <v>0.0004157883540582877</v>
       </c>
       <c r="Q35">
-        <v>0.0009950625941755669</v>
+        <v>0.001023032740915508</v>
       </c>
       <c r="R35">
-        <v>1.895357322239175E-06</v>
+        <v>3.674408710282543E-05</v>
       </c>
       <c r="S35">
-        <v>0</v>
+        <v>6.188477827844282E-05</v>
       </c>
       <c r="T35">
-        <v>2.653500251134845E-05</v>
+        <v>3.287628846042275E-05</v>
       </c>
       <c r="U35">
-        <v>0.0001573146577458515</v>
+        <v>0.0002359357171865633</v>
       </c>
       <c r="V35">
-        <v>0.00179111266951602</v>
+        <v>0.001843006053104875</v>
       </c>
       <c r="W35">
-        <v>0</v>
+        <v>1.160339592720803E-05</v>
       </c>
       <c r="X35">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="Y35">
-        <v>0.0001137214393343505</v>
+        <v>0.0001218356572356843</v>
       </c>
       <c r="Z35">
-        <v>0.000108035367367633</v>
+        <v>0.0001102322613084763</v>
       </c>
       <c r="AA35">
-        <v>0.0002729314544024412</v>
+        <v>0.0002398035158289659</v>
       </c>
       <c r="AB35">
-        <v>7.5814292889567E-06</v>
+        <v>5.801697963604015E-06</v>
       </c>
       <c r="AC35">
-        <v>0.0007259218544176041</v>
+        <v>0.0007194105474868978</v>
       </c>
       <c r="AD35">
         <v>0</v>
@@ -4212,13 +4212,13 @@
         <v>0</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>1.933899321201338E-06</v>
       </c>
       <c r="AH35">
-        <v>4.927929037821855E-05</v>
+        <v>6.381867759964416E-05</v>
       </c>
       <c r="AI35">
-        <v>1.51628585779134E-05</v>
+        <v>1.547119456961071E-05</v>
       </c>
     </row>
   </sheetData>
